--- a/Tabela/Cabo Frio/Cabo Frio-2.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-2.xlsx
@@ -14,336 +14,417 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="110">
-  <si>
-    <t>Rua dos Rouxinóis, Morada de Laranjeiras</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
+  <si>
+    <t>pronto para morar</t>
   </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>33 - 42 m²</t>
+    <t>R$ 3.400.000</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 290.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>R$ 100.000</t>
+    <t>R$ 400.000</t>
+  </si>
+  <si>
+    <t>R$ 330.000</t>
+  </si>
+  <si>
+    <t>R$ 115.000</t>
+  </si>
+  <si>
+    <t>Alphaville Jacuhy - Casa Moderna e Super Atraente</t>
   </si>
   <si>
     <t>R$ 600.000</t>
   </si>
   <si>
+    <t>R$ 670.000</t>
+  </si>
+  <si>
+    <t>Maravilhosa Casa com 180m² na Orla 500.</t>
+  </si>
+  <si>
+    <t>R$ 350.000</t>
+  </si>
+  <si>
+    <t>Contato 24 998 24 18 32 (com whatsapp)</t>
+  </si>
+  <si>
     <t>R$ 175.000</t>
   </si>
   <si>
+    <t>Excelente casa no condomínio Long Beach em Unamar, Cabo Frio/RJ.</t>
+  </si>
+  <si>
+    <t>R$ 650.000</t>
+  </si>
+  <si>
+    <t>R$ 235.000</t>
+  </si>
+  <si>
+    <t>R$ 370.000</t>
+  </si>
+  <si>
+    <t>R$ 750.000</t>
+  </si>
+  <si>
+    <t>R$ 800.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>Imóvel Disponível em Frase de Construção.</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>R$ 280.000</t>
+  </si>
+  <si>
+    <t>R$ 205.000</t>
+  </si>
+  <si>
     <t>R$ 550.000</t>
   </si>
   <si>
-    <t>R$ 420.000</t>
-  </si>
-  <si>
-    <t>R$ 340.000</t>
-  </si>
-  <si>
-    <t>R$ 349.999</t>
-  </si>
-  <si>
-    <t>R$ 189.999</t>
-  </si>
-  <si>
-    <t>R$ 580.000</t>
-  </si>
-  <si>
-    <t>R$ 800.000</t>
-  </si>
-  <si>
-    <t>R$ 210.000</t>
-  </si>
-  <si>
-    <t>R$ 250.000</t>
-  </si>
-  <si>
-    <t>R$ 260.000</t>
-  </si>
-  <si>
-    <t>R$ 360.000</t>
-  </si>
-  <si>
-    <t>R$ 270.000</t>
-  </si>
-  <si>
-    <t>R$ 184.999</t>
-  </si>
-  <si>
-    <t>R$ 219.999</t>
+    <t>ALPHAVILLE JACUHY</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650</t>
+  </si>
+  <si>
+    <t>Bela casa com 3 quartos, piscina, área gourmet e quintal enorme em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 200</t>
+  </si>
+  <si>
+    <t>Composta por:</t>
+  </si>
+  <si>
+    <t>condomínioR$ 330 IPTU R$ 570</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMOVEIS VENDE OTIMA OPORTUNIDADE......</t>
+  </si>
+  <si>
+    <t>condomínioR$ 700 IPTU R$ 1.400</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMÓVEIS VENDE</t>
+  </si>
+  <si>
+    <t>Casa com 3 quartos sendo 2 suites,sala, cozinha americana, copa, 2 banheiros, 2 área de serviço, área gourmet, garagem e piscina</t>
+  </si>
+  <si>
+    <t>𝐃𝐮𝐩𝐥𝐞𝐱 𝐃𝐞 𝐅𝐫𝐞𝐧𝐭𝐞 𝐩𝐚𝐫𝐚 𝐨 𝐌𝐚𝐫 𝐞𝐦 𝐂𝐨𝐧𝐝𝐨𝐦𝐢𝐧𝐢𝐨 𝐅𝐞𝐜𝐡𝐚𝐝𝐨 !🌅🏠</t>
+  </si>
+  <si>
+    <t>IPTU R$ 1.700</t>
+  </si>
+  <si>
+    <t>IPTU R$ 300</t>
+  </si>
+  <si>
+    <t>A Imobiliária Confiança oferece uma excelente oportunidade de imóvel para venda!!</t>
+  </si>
+  <si>
+    <t>•Condomínio sítio do Gravatá</t>
+  </si>
+  <si>
+    <t>CA 3087</t>
+  </si>
+  <si>
+    <t>CASA MARAVILHOSA.........COND.GRAVATÁ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1 IPTU R$ 839</t>
+  </si>
+  <si>
+    <t>condomínioR$ 350 IPTU R$ 1.500</t>
+  </si>
+  <si>
+    <t>Excelente apto localizado a meia quadra da Praia do Forte, atrás do Hotel Malibu.</t>
+  </si>
+  <si>
+    <t>Excelente casa ricamente mobiliada com moveis planejados área gourmet com churrasqueira a gás perto de belas praias shopping e todos os recursos necessários para melhor qualidade d...</t>
+  </si>
+  <si>
+    <t>* 4 quartos, sendo 1 suíte;</t>
+  </si>
+  <si>
+    <t>Motivo venda Mudança!</t>
+  </si>
+  <si>
+    <t>Terreno plano com 1.200 m², excelente localização, água e luz, local tranquilo e seguro, à minutos da Praia, no loteamento Caravelas d...</t>
+  </si>
+  <si>
+    <t>- Imóvel com ótima localização dentro do condomínio lado Praia</t>
+  </si>
+  <si>
+    <t>Cobertura Duplex 1 piso - sala de estar com varanda, sala de jantar, cozinha com lavabo, quarto de serviço e 1 suíte. 2 piso - 3 quartos sendo 1 suíte com banheira, varandão com ch...</t>
+  </si>
+  <si>
+    <t>casa mobiliada.</t>
+  </si>
+  <si>
+    <t>📍Localizado no Condominio Long Beach</t>
+  </si>
+  <si>
+    <t>Linda casa recém reformada, com banheiros e cozinha totalmente modernizados.</t>
+  </si>
+  <si>
+    <t>Para Morar, lazer, Instalação de Pousada, Templo Religioso, Escola, Academia, Clínica, Comércio. Belíssimas casa, sobrado, kitnetes e ponto comercial. Tudo sobre o mesmo terreno e...</t>
+  </si>
+  <si>
+    <t>CASA COM 2 QUARTOS SENDO , SALA, COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO, BANHEIRO EXTERNO, ÁREA GOURMET, E VAGA PARA...</t>
+  </si>
+  <si>
+    <t>O condomínio conta com segurança, ônibus, piscina, área de lazer, esportes e danças.</t>
+  </si>
+  <si>
+    <t>A 2 KM DA ´PRAIA DO CORAL.....E A MINUTOS DO UNAPARK SHOPPING...................</t>
+  </si>
+  <si>
+    <t>ATENÇÃO INVESTIDORES. AGORA OU NUNCA.VENDO Magnífica casa com 200 METROS de construção, MAIS TERRENO 1.225 METROS. Perto da pista, 5ª casa, localização de esquina. Pode fazer: Pous...</t>
+  </si>
+  <si>
+    <t>Lindo Apartamento Braga cabo frio pertinho da praia , Piscina , Churrasqueira , sauna , garagem , próximo aos principais mercados e farmácias .</t>
+  </si>
+  <si>
+    <t>- Casa com uma arquitetura moderna e super atraente;</t>
+  </si>
+  <si>
+    <t>Melhor localização da Praia do Forte, rodeado de restaurantes, bares, sorveteria, farmácia, pad...</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>* sala;</t>
+  </si>
+  <si>
+    <t>Lugar tranquilo com muita paz, pássaros vem na janela! Muito fresco e com muitas árvores ao redor com pássaros cantando. Tem espaço para por piscina e cria...</t>
+  </si>
+  <si>
+    <t>CONDOMINIO GRAVATÁ....EXCELENTE IMÓVEL, LOCALIZAÇÃO PRIVILEGIADA PELA NATUREZA COM MUITAS ARVORES, 5 MINUTOS DAS PRAIAS......</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL GRAVATÁ, EXCELENTE IMOVEL BEM LOCALIZADO EM AREA NOBRE DE UNAMAR,,,,PERTINHO DA PRAIA DO CORAL , COMERCIO, SHOPPING, HOSPITAL DE TAMOIOS...</t>
+  </si>
+  <si>
+    <t>Composta por :</t>
+  </si>
+  <si>
+    <t>OBS: FINANCIAMENTO DIRETO COM O CONSTRUTOR / NÃO ACEITAMOS FINANCIAMENTO BANCÁRIO, CARTA DE...</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lagos está esperando o quê? Venha realizar seu sonho.</t>
+  </si>
+  <si>
+    <t>- 366m2 de área construída;</t>
+  </si>
+  <si>
+    <t>Rua Terezina, Palmeiras</t>
+  </si>
+  <si>
+    <t>* copa;</t>
+  </si>
+  <si>
+    <t>Avenida Caminho de Búzios, Caravelas do Peró</t>
+  </si>
+  <si>
+    <t>Imóvel constituído por:</t>
+  </si>
+  <si>
+    <t>Avenida Vereador Antônio Ferreira dos Santos, Braga</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Aquariús</t>
+  </si>
+  <si>
+    <t>✔3 Quartos, sendo 1 s...</t>
+  </si>
+  <si>
+    <t>Casa Dupléx Linda Com 360 mts - Bairro Braga com 04 quartos, SENDO 03 SUÍTES.</t>
+  </si>
+  <si>
+    <t>Rua Aurélia de Faria, Unamar</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>casa composto por :</t>
+  </si>
+  <si>
+    <t>SENDO: CASA COM 02 QUARTO...01 SUITE... SALA GRAND...</t>
+  </si>
+  <si>
+    <t>- 500m2 de terr...</t>
+  </si>
+  <si>
+    <t>Praia do Forte, Cabo Frio</t>
+  </si>
+  <si>
+    <t>98 m²</t>
+  </si>
+  <si>
+    <t>* cozinha;</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>1200 m²</t>
+  </si>
+  <si>
+    <t>143 m²</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>325 m²</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Sambura Tamoios</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>1225 m²</t>
+  </si>
+  <si>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>83 m²</t>
+  </si>
+  <si>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>* churrasqueira;</t>
+  </si>
+  <si>
+    <t>400 m²</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>- 3 Qu...</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rua Onze, Long Beach Tamoios</t>
+  </si>
+  <si>
+    <t>LINDA Casa...</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>59 m²</t>
+  </si>
+  <si>
+    <t>- 2 quartos com área gourm...</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Linda casa com 2 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Casa de alto padrão com 5 quartos, área gourmet, piscina, próximo à praia em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 680 IPTU R$ 2.000</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMOVEIS VENDE OTIMA OPORTUNIDADE......</t>
-  </si>
-  <si>
-    <t>condomínio R$ 520 IPTU R$ 1.024</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700 IPTU R$ 450</t>
-  </si>
-  <si>
-    <t>A casa de condomínio no bairro Verão Vermelho (Tamoios) com 205 metros quadrados com 4 quartos sendo 1 suite e 3 banheiros</t>
-  </si>
-  <si>
-    <t>Excelente casa pronta para morar com 3 quartos, piscina e área gourmet em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Excelente casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 380 IPTU R$ 760</t>
-  </si>
-  <si>
-    <t>IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>O imóvel com 140 m2 de terreno sendo 65m2 de área construída, localizado dentro do condomínio Santa margarida em unamar!!! imóvel possui 2 quartos sendo 1 suíte, sala,cozinha ameri...</t>
-  </si>
-  <si>
-    <t>Leal Imóveis vende:</t>
-  </si>
-  <si>
-    <t>IPTU R$ 180</t>
-  </si>
-  <si>
-    <t>IPTU R$ 400</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0401</t>
-  </si>
-  <si>
-    <t>Bela casa com 2 quartos com piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 806 IPTU R$ 1.100</t>
-  </si>
-  <si>
-    <t>Bela casa de 2 quartos sendo 1 suíte, com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Casa com 2 quartos, sala, cozinha Americana, área de serviço, garagem para 2 carros, lage, telhado colonial e quintal no piso , condomínio com piscina, e segurança 24h.</t>
-  </si>
-  <si>
-    <t>Lindo apartamento recém reformado,localizado no melhor ponto da praia do forte.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento no bairro Braga, com 95 m2 composto por duas suítes, quarto, banheiro social, sala ampla com dois ambientes, cozinha, área de serviços, varanda e uma ótima ga...</t>
-  </si>
-  <si>
-    <t>Totalmente reformado, próximo do calçadão e de todo o comércio.. Documentação ok. Compartimento na área externa para guardar coisas, a 100 metros da Praia do Forte. Aceito permuta...</t>
-  </si>
-  <si>
-    <t>Possui sacada.</t>
-  </si>
-  <si>
-    <t>Apartamento em excelente localização próximo a comércios, como mercado, padaria, farmácia, Praia das Dunas e Quiosques. Apartamento todo reformado. Composto sala em 2 ambientes, ba...</t>
-  </si>
-  <si>
-    <t>Para Morar, lazer, Instalação de Pousada, Templo Religioso, Escola, Academia, Clínica, Comércio. Belíssimas casa, sobrado, kitnetes e ponto comercial. Tudo sobre o mesmo terreno e...</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Imóvel em mobiliado Unamar – Cabo Frio/RJ</t>
-  </si>
-  <si>
-    <t>Apartamento térreo, sala de estar, sala de jantar, 2 quartos (1 suíte), banheiro social, cozinha e área de serviço. Condomínio fechado com guarita, com segurança e portão eletrônic...</t>
-  </si>
-  <si>
-    <t>Excelente imóvel a 200m da praia em Unamar</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na Praia do Forte em Cabo Frio, Próximo aos restaurantes da orla e a 20 metros da areia da praia. Unidade com sala em dois ambientes, cozinha, área de serviço...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de...</t>
-  </si>
-  <si>
-    <t>2 quartos amplos,sala 2 ambientes,cozinha e dependência completa de empregada,área de serviço</t>
-  </si>
-  <si>
-    <t>CONDOMINIO GRAVATÁ....EXCELENTE IMÓVEL, LOCALIZAÇÃO PRIVILEGIADA PELA NATUREZA COM MUITAS ARVORES, 5 MINUTOS DAS PRAIAS......</t>
-  </si>
-  <si>
-    <t>Vai lhe possibilitar desfrutar de se...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com a Jéssica Marques Corretora de Imóveis&lt;...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Rodovia Amaral Peixoto, Santa Margarida II Tamoios</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de...</t>
-  </si>
-  <si>
-    <t>PRON...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074.516</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>Alameda Pica-pau, Alphaville Jacuhy</t>
+  </si>
+  <si>
+    <t>* chuveirão;</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>144 m²</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>- 03 quartos</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>366 m²</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>* piscina;</t>
+  </si>
+  <si>
+    <t>Long Beach Tamoios, Cabo Frio</t>
   </si>
   <si>
     <t>Rua Juscelino Kubitschek, Braga</t>
   </si>
   <si>
-    <t>Rua Antônio Feliciano de Almeida, Passagem</t>
-  </si>
-  <si>
-    <t>CR...</t>
-  </si>
-  <si>
-    <t>Vila Nova, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Rua Aurélia de Faria, Unamar</t>
-  </si>
-  <si>
-    <t>140 m²</t>
-  </si>
-  <si>
-    <t>Código: CA0097</t>
-  </si>
-  <si>
-    <t>Rua J, Parque Burle</t>
-  </si>
-  <si>
-    <t>Casa de praia com excelente localização em Unamar. Um sonho para quem busca proximidade com o Mar, Comercio e Rodovia Amaral Peixo...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.292&lt;...</t>
-  </si>
-  <si>
-    <t>Passagem, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>95 m²</t>
-  </si>
-  <si>
-    <t>84 m²</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>325 m²</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>58 m²</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 1 suíte, sala, cozinha, 1 banheiro social interno, 1 externo, área de serviço,...</t>
+    <t>- Suíte</t>
+  </si>
+  <si>
+    <t>* L...</t>
   </si>
   <si>
     <t>80 m²</t>
   </si>
   <si>
-    <t>Rua das Pacas, Unamar</t>
-  </si>
-  <si>
-    <t>Para infor...</t>
-  </si>
-  <si>
-    <t>260 m²</t>
-  </si>
-  <si>
-    <t>Praia do Forte, Cabo Frio</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>600 m²</t>
-  </si>
-  <si>
-    <t>420 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Casa composta por sala, 3 quartos sendo 1 suíte, 1 cozinha, 2 banheiros, área de servi...</t>
-  </si>
-  <si>
-    <t>Rua Tubarão, Aquariús</t>
-  </si>
-  <si>
-    <t>102 m²</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>Nova California Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>118 m²</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Rua Orlando Bragança, Unamar</t>
-  </si>
-  <si>
-    <t>500 m²</t>
+    <t>360 m²</t>
+  </si>
+  <si>
+    <t>- Sala</t>
+  </si>
+  <si>
+    <t>- Cozinha...</t>
+  </si>
+  <si>
+    <t>180 m²</t>
+  </si>
+  <si>
+    <t>115 m²</t>
   </si>
 </sst>
 </file>
@@ -701,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -753,8 +834,20 @@
       <c r="P1" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -765,13 +858,40 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -782,40 +902,37 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
         <v>66</v>
       </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -826,34 +943,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -864,40 +981,34 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -908,34 +1019,55 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -943,37 +1075,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -981,37 +1116,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1019,40 +1142,37 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1060,37 +1180,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1098,40 +1221,37 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1139,37 +1259,37 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1177,40 +1297,37 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1218,37 +1335,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>109</v>
+      </c>
+      <c r="M14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1256,34 +1376,43 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1291,43 +1420,37 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1335,34 +1458,37 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1370,40 +1496,34 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1411,40 +1531,43 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>103</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1452,40 +1575,52 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1493,37 +1628,40 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>103</v>
+      </c>
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1531,37 +1669,37 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1569,34 +1707,34 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
